--- a/testData/Opencart_LoginData.xlsx
+++ b/testData/Opencart_LoginData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{60A16478-927F-4DB4-9173-1201428F122E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E329228B-AE90-4027-840A-9EE14E68AA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
   </bookViews>
@@ -483,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884FCF78-0A3E-40BF-9E26-11C478AF56E2}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
